--- a/시장분석용_정보/시장분석용_4278025000.xlsx
+++ b/시장분석용_정보/시장분석용_4278025000.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
-  <si>
-    <t>중첩매칭</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+  <si>
+    <t>중복체크</t>
+  </si>
+  <si>
+    <t>sim_cd</t>
+  </si>
+  <si>
+    <t>place</t>
   </si>
   <si>
     <t>TA_YM</t>
@@ -25,19 +31,16 @@
     <t>year</t>
   </si>
   <si>
-    <t>MCT_NO</t>
-  </si>
-  <si>
     <t>MCT_BRN</t>
   </si>
   <si>
     <t>MCT_NM</t>
   </si>
   <si>
-    <t>GDS_AF_MCT_AR2</t>
-  </si>
-  <si>
-    <t>sim_cd</t>
+    <t>address</t>
+  </si>
+  <si>
+    <t>hdong_code</t>
   </si>
   <si>
     <t>area</t>
@@ -46,9 +49,6 @@
     <t>hos_type</t>
   </si>
   <si>
-    <t>hdong_code</t>
-  </si>
-  <si>
     <t>EST_HGA</t>
   </si>
   <si>
@@ -58,6 +58,54 @@
     <t>AVG_AMT</t>
   </si>
   <si>
+    <t>WK_RT</t>
+  </si>
+  <si>
+    <t>WE_RT</t>
+  </si>
+  <si>
+    <t>WK_1_RT</t>
+  </si>
+  <si>
+    <t>WK_2_RT</t>
+  </si>
+  <si>
+    <t>WK_3_RT</t>
+  </si>
+  <si>
+    <t>WK_4_RT</t>
+  </si>
+  <si>
+    <t>WK_5_RT</t>
+  </si>
+  <si>
+    <t>WK_6_RT</t>
+  </si>
+  <si>
+    <t>WK_7_RT</t>
+  </si>
+  <si>
+    <t>TIME_0510_RT</t>
+  </si>
+  <si>
+    <t>TIME_1114_RT</t>
+  </si>
+  <si>
+    <t>TIME_1517_RT</t>
+  </si>
+  <si>
+    <t>TIME_1819_RT</t>
+  </si>
+  <si>
+    <t>TIME_2021_RT</t>
+  </si>
+  <si>
+    <t>TIME_2224_RT</t>
+  </si>
+  <si>
+    <t>TIME_0104_RT</t>
+  </si>
+  <si>
     <t>F20_RT</t>
   </si>
   <si>
@@ -112,16 +160,61 @@
     <t>IC_1099_RT</t>
   </si>
   <si>
-    <t>202007 1279606786</t>
+    <t>LIFE_01_RT</t>
+  </si>
+  <si>
+    <t>LIFE_02_RT</t>
+  </si>
+  <si>
+    <t>LIFE_03_RT</t>
+  </si>
+  <si>
+    <t>LIFE_04_RT</t>
+  </si>
+  <si>
+    <t>LIFE_05_RT</t>
+  </si>
+  <si>
+    <t>LIFE_06_RT</t>
+  </si>
+  <si>
+    <t>FTJB_HUWF_RT</t>
+  </si>
+  <si>
+    <t>STUD_RT</t>
+  </si>
+  <si>
+    <t>SCTY_EAR_H_RT</t>
+  </si>
+  <si>
+    <t>GDS_01_RT</t>
+  </si>
+  <si>
+    <t>GDS_02_RT</t>
+  </si>
+  <si>
+    <t>GDS_03_RT</t>
+  </si>
+  <si>
+    <t>REVISIT_RT</t>
+  </si>
+  <si>
+    <t>FREQ_RT</t>
+  </si>
+  <si>
+    <t>1279606786 202007</t>
+  </si>
+  <si>
+    <t>JDQ4MTYyMiM1MSMkMiMkNCMkMDAkMzgxMzUxIzExIyQxIyQzIyQ2MiQzNjE0ODEjNDEjJDEjJDgjJDgz</t>
+  </si>
+  <si>
+    <t>강원도</t>
   </si>
   <si>
     <t>삼광의원</t>
   </si>
   <si>
-    <t>강원도 철원군 동송읍 금학로217번길 1</t>
-  </si>
-  <si>
-    <t>JDQ4MTYyMiM1MSMkMiMkNCMkMDAkMzgxMzUxIzExIyQxIyQzIyQ2MiQzNjE0ODEjNDEjJDEjJDgjJDgz</t>
+    <t>강원도 철원군 철원읍 금학로 259 (철원읍)</t>
   </si>
   <si>
     <t>일반의원</t>
@@ -482,13 +575,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG2"/>
+  <dimension ref="A1:BK2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:63">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -585,43 +678,133 @@
       <c r="AG1" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="2" spans="1:33">
+    <row r="2" spans="1:63">
       <c r="A2" s="1">
-        <v>129892</v>
+        <v>8024</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2">
         <v>202007</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>2020</v>
       </c>
-      <c r="E2">
-        <v>13711304</v>
-      </c>
-      <c r="F2">
+      <c r="G2">
         <v>1279606786</v>
       </c>
-      <c r="G2" t="s">
-        <v>33</v>
-      </c>
       <c r="H2" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="I2" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="J2">
+        <v>4278025000</v>
+      </c>
+      <c r="K2">
         <v>30.04242424242424</v>
       </c>
-      <c r="K2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L2">
-        <v>4278025000</v>
+      <c r="L2" t="s">
+        <v>67</v>
       </c>
       <c r="M2">
         <v>63958</v>
@@ -630,40 +813,40 @@
         <v>10</v>
       </c>
       <c r="O2">
-        <v>6250</v>
+        <v>6395.8</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>48</v>
+      </c>
+      <c r="V2">
         <v>52</v>
       </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
         <v>48</v>
       </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
       <c r="Z2">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="AA2">
         <v>0</v>
@@ -672,18 +855,108 @@
         <v>0</v>
       </c>
       <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>52</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
         <v>48</v>
       </c>
-      <c r="AD2">
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>48</v>
+      </c>
+      <c r="AT2">
         <v>52</v>
       </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>48</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>52</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>48</v>
+      </c>
+      <c r="BI2">
+        <v>48</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
         <v>0</v>
       </c>
     </row>

--- a/시장분석용_정보/시장분석용_4278025000.xlsx
+++ b/시장분석용_정보/시장분석용_4278025000.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
-  <si>
-    <t>중복체크</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>sim_cd</t>
   </si>
@@ -158,51 +155,6 @@
   </si>
   <si>
     <t>IC_1099_RT</t>
-  </si>
-  <si>
-    <t>LIFE_01_RT</t>
-  </si>
-  <si>
-    <t>LIFE_02_RT</t>
-  </si>
-  <si>
-    <t>LIFE_03_RT</t>
-  </si>
-  <si>
-    <t>LIFE_04_RT</t>
-  </si>
-  <si>
-    <t>LIFE_05_RT</t>
-  </si>
-  <si>
-    <t>LIFE_06_RT</t>
-  </si>
-  <si>
-    <t>FTJB_HUWF_RT</t>
-  </si>
-  <si>
-    <t>STUD_RT</t>
-  </si>
-  <si>
-    <t>SCTY_EAR_H_RT</t>
-  </si>
-  <si>
-    <t>GDS_01_RT</t>
-  </si>
-  <si>
-    <t>GDS_02_RT</t>
-  </si>
-  <si>
-    <t>GDS_03_RT</t>
-  </si>
-  <si>
-    <t>REVISIT_RT</t>
-  </si>
-  <si>
-    <t>FREQ_RT</t>
-  </si>
-  <si>
-    <t>1279606786 202007</t>
   </si>
   <si>
     <t>JDQ4MTYyMiM1MSMkMiMkNCMkMDAkMzgxMzUxIzExIyQxIyQzIyQ2MiQzNjE0ODEjNDEjJDEjJDgjJDgz</t>
@@ -575,13 +527,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK2"/>
+  <dimension ref="A1:AV2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:63">
+    <row r="1" spans="1:48">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,100 +675,55 @@
       <c r="AV1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AW1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="2" spans="1:63">
+    <row r="2" spans="1:48">
       <c r="A2" s="1">
         <v>8024</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" t="s">
-        <v>64</v>
+        <v>48</v>
+      </c>
+      <c r="D2">
+        <v>202007</v>
       </c>
       <c r="E2">
-        <v>202007</v>
+        <v>2020</v>
       </c>
       <c r="F2">
-        <v>2020</v>
-      </c>
-      <c r="G2">
         <v>1279606786</v>
       </c>
+      <c r="G2" t="s">
+        <v>49</v>
+      </c>
       <c r="H2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I2" t="s">
-        <v>66</v>
+        <v>50</v>
+      </c>
+      <c r="I2">
+        <v>4278025000</v>
       </c>
       <c r="J2">
-        <v>4278025000</v>
-      </c>
-      <c r="K2">
         <v>30.04242424242424</v>
       </c>
-      <c r="L2" t="s">
-        <v>67</v>
+      <c r="K2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2">
+        <v>63958</v>
       </c>
       <c r="M2">
-        <v>63958</v>
+        <v>10</v>
       </c>
       <c r="N2">
-        <v>10</v>
+        <v>6395.8</v>
       </c>
       <c r="O2">
-        <v>6395.8</v>
+        <v>100</v>
       </c>
       <c r="P2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -828,135 +735,90 @@
         <v>0</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="U2">
+        <v>52</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
         <v>48</v>
       </c>
-      <c r="V2">
+      <c r="Y2">
         <v>52</v>
       </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>52</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
         <v>48</v>
       </c>
-      <c r="Z2">
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>48</v>
+      </c>
+      <c r="AS2">
         <v>52</v>
       </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <v>52</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>48</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
-      <c r="AL2">
-        <v>0</v>
-      </c>
-      <c r="AM2">
-        <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>0</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <v>48</v>
-      </c>
       <c r="AT2">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="AU2">
         <v>0</v>
       </c>
       <c r="AV2">
-        <v>0</v>
-      </c>
-      <c r="AW2">
-        <v>0</v>
-      </c>
-      <c r="AX2">
-        <v>48</v>
-      </c>
-      <c r="AY2">
-        <v>0</v>
-      </c>
-      <c r="AZ2">
-        <v>0</v>
-      </c>
-      <c r="BA2">
-        <v>52</v>
-      </c>
-      <c r="BB2">
-        <v>0</v>
-      </c>
-      <c r="BC2">
-        <v>0</v>
-      </c>
-      <c r="BD2">
-        <v>0</v>
-      </c>
-      <c r="BE2">
-        <v>0</v>
-      </c>
-      <c r="BF2">
-        <v>0</v>
-      </c>
-      <c r="BG2">
-        <v>0</v>
-      </c>
-      <c r="BH2">
-        <v>48</v>
-      </c>
-      <c r="BI2">
-        <v>48</v>
-      </c>
-      <c r="BJ2">
-        <v>0</v>
-      </c>
-      <c r="BK2">
         <v>0</v>
       </c>
     </row>

--- a/시장분석용_정보/시장분석용_4278025000.xlsx
+++ b/시장분석용_정보/시장분석용_4278025000.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>sim_cd</t>
   </si>
@@ -53,54 +53,6 @@
   </si>
   <si>
     <t>AVG_AMT</t>
-  </si>
-  <si>
-    <t>WK_RT</t>
-  </si>
-  <si>
-    <t>WE_RT</t>
-  </si>
-  <si>
-    <t>WK_1_RT</t>
-  </si>
-  <si>
-    <t>WK_2_RT</t>
-  </si>
-  <si>
-    <t>WK_3_RT</t>
-  </si>
-  <si>
-    <t>WK_4_RT</t>
-  </si>
-  <si>
-    <t>WK_5_RT</t>
-  </si>
-  <si>
-    <t>WK_6_RT</t>
-  </si>
-  <si>
-    <t>WK_7_RT</t>
-  </si>
-  <si>
-    <t>TIME_0510_RT</t>
-  </si>
-  <si>
-    <t>TIME_1114_RT</t>
-  </si>
-  <si>
-    <t>TIME_1517_RT</t>
-  </si>
-  <si>
-    <t>TIME_1819_RT</t>
-  </si>
-  <si>
-    <t>TIME_2021_RT</t>
-  </si>
-  <si>
-    <t>TIME_2224_RT</t>
-  </si>
-  <si>
-    <t>TIME_0104_RT</t>
   </si>
   <si>
     <t>F20_RT</t>
@@ -527,13 +479,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AV2"/>
+  <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:48">
+    <row r="1" spans="1:32">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -627,64 +579,16 @@
       <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>46</v>
-      </c>
     </row>
-    <row r="2" spans="1:48">
+    <row r="2" spans="1:32">
       <c r="A2" s="1">
         <v>8024</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D2">
         <v>202007</v>
@@ -696,10 +600,10 @@
         <v>1279606786</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I2">
         <v>4278025000</v>
@@ -708,7 +612,7 @@
         <v>30.04242424242424</v>
       </c>
       <c r="K2" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L2">
         <v>63958</v>
@@ -720,50 +624,50 @@
         <v>6395.8</v>
       </c>
       <c r="O2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
         <v>48</v>
       </c>
-      <c r="U2">
+      <c r="AC2">
         <v>52</v>
       </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>48</v>
-      </c>
-      <c r="Y2">
-        <v>52</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
       <c r="AD2">
         <v>0</v>
       </c>
@@ -771,54 +675,6 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>52</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>48</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
-      <c r="AL2">
-        <v>0</v>
-      </c>
-      <c r="AM2">
-        <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>0</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>48</v>
-      </c>
-      <c r="AS2">
-        <v>52</v>
-      </c>
-      <c r="AT2">
-        <v>0</v>
-      </c>
-      <c r="AU2">
-        <v>0</v>
-      </c>
-      <c r="AV2">
         <v>0</v>
       </c>
     </row>
